--- a/Methanol/MIXTURE_FRAC.xlsx
+++ b/Methanol/MIXTURE_FRAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EVERYTHING YOU NEED\Results\Methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1A92D0C-6719-4B94-8F12-5E3BBD9F24BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC50834B-7E74-4986-9F81-34135D459AC6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="4095" windowWidth="18900" windowHeight="11055" xr2:uid="{29EF8A15-629F-4C06-A655-0F39B15B1CFF}"/>
+    <workbookView xWindow="25200" yWindow="-13050" windowWidth="16200" windowHeight="11055" xr2:uid="{29EF8A15-629F-4C06-A655-0F39B15B1CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -629,43 +629,43 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.43746637011377509</v>
+        <v>0.43960722505355698</v>
       </c>
       <c r="C2">
-        <v>7.0238904618743492E-2</v>
+        <v>7.0582636882960265E-2</v>
       </c>
       <c r="D2">
-        <v>3.9429474838812281E-3</v>
+        <v>3.9622433182009541E-3</v>
       </c>
       <c r="E2">
-        <v>0.11868252474990545</v>
+        <v>0.11436956951653633</v>
       </c>
       <c r="F2">
-        <v>6.2137758286446637E-3</v>
+        <v>6.2441845493744217E-3</v>
       </c>
       <c r="G2">
-        <v>1.9903736966353596E-2</v>
+        <v>2.0001141056166155E-2</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.31692178463249854</v>
+        <v>0.31847272343489952</v>
       </c>
       <c r="J2">
-        <v>0.40391272399242012</v>
+        <v>0.40588937547805326</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.640645452453297E-4</v>
+        <v>6.6731431702013531E-4</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>5.9519537182307417E-2</v>
+        <v>5.9810811446788896E-2</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -691,43 +691,43 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.39118683221667927</v>
+        <v>0.39344998923047203</v>
       </c>
       <c r="C3">
-        <v>7.7999381237832524E-2</v>
+        <v>7.8450635810282249E-2</v>
       </c>
       <c r="D3">
-        <v>4.3688567294451284E-3</v>
+        <v>4.3941321424580664E-3</v>
       </c>
       <c r="E3">
-        <v>0.12684281082494267</v>
+        <v>0.12179128134061024</v>
       </c>
       <c r="F3">
-        <v>6.8495286841973894E-3</v>
+        <v>6.8891556798070727E-3</v>
       </c>
       <c r="G3">
-        <v>1.8863467966526427E-2</v>
+        <v>1.8972599937024996E-2</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.25178218120197116</v>
+        <v>0.25323883199490904</v>
       </c>
       <c r="J3">
-        <v>0.44163630103094603</v>
+        <v>0.44419132643034409</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.6435726068468121E-4</v>
+        <v>7.6877934331399576E-4</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.0893115063453915E-2</v>
+        <v>7.1303257321250063E-2</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -753,43 +753,43 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.27222264506403887</v>
+        <v>0.27412221249212843</v>
       </c>
       <c r="C4">
-        <v>8.9099453557348871E-2</v>
+        <v>8.9721188827749709E-2</v>
       </c>
       <c r="D4">
-        <v>3.3550106344769778E-3</v>
+        <v>3.3784218717039451E-3</v>
       </c>
       <c r="E4">
-        <v>0.12154658946752178</v>
+        <v>0.11541674863319593</v>
       </c>
       <c r="F4">
-        <v>8.4436785947772462E-3</v>
+        <v>8.5025985161090029E-3</v>
       </c>
       <c r="G4">
-        <v>3.8766887548683952E-2</v>
+        <v>3.9037402578242085E-2</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.13726306446552952</v>
+        <v>0.13822088502552426</v>
       </c>
       <c r="J4">
-        <v>0.5406714035921083</v>
+        <v>0.54444420429838847</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.6736463134187179E-4</v>
+        <v>5.7132369717672747E-4</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.0286547508211517E-2</v>
+        <v>6.0707226551909868E-2</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -815,43 +815,43 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.21067614057678816</v>
+        <v>0.21252679205249259</v>
       </c>
       <c r="C5">
-        <v>8.9312662163451476E-2</v>
+        <v>9.0097215220002455E-2</v>
       </c>
       <c r="D5">
-        <v>2.3473811306385923E-3</v>
+        <v>2.3680013315857122E-3</v>
       </c>
       <c r="E5">
-        <v>0.11743821385727859</v>
+        <v>0.10968548843021463</v>
       </c>
       <c r="F5">
-        <v>9.1831857286699698E-3</v>
+        <v>9.2638539817236978E-3</v>
       </c>
       <c r="G5">
-        <v>5.7057516619757449E-2</v>
+        <v>5.7558729415109075E-2</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.5084512941585042E-2</v>
+        <v>9.591976791497793E-2</v>
       </c>
       <c r="J5">
-        <v>0.58564492106402322</v>
+        <v>0.59078942691285186</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3.7274503267758027E-4</v>
+        <v>3.7601935288725214E-4</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4.3558861461918154E-2</v>
+        <v>4.3941497440647417E-2</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -877,43 +877,43 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.15906396023581121</v>
+        <v>0.16153129089355892</v>
       </c>
       <c r="C6">
-        <v>9.1082292102700135E-2</v>
+        <v>9.2495120824868021E-2</v>
       </c>
       <c r="D6">
-        <v>1.1782162232240303E-3</v>
+        <v>1.1964921985279692E-3</v>
       </c>
       <c r="E6">
-        <v>9.9105219743863993E-2</v>
+        <v>8.5130933504318732E-2</v>
       </c>
       <c r="F6">
-        <v>9.6594988111325976E-3</v>
+        <v>9.8093327365538722E-3</v>
       </c>
       <c r="G6">
-        <v>9.0323322206344425E-2</v>
+        <v>9.1724378119066308E-2</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>6.5159732178978233E-2</v>
+        <v>6.6170461476912745E-2</v>
       </c>
       <c r="J6">
-        <v>0.6195104526382943</v>
+        <v>0.62912002812178902</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.9119090712974899E-4</v>
+        <v>1.9415657695177839E-4</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.3790075188332573E-2</v>
+        <v>2.4159096441011538E-2</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -939,43 +939,43 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.12945347225092824</v>
+        <v>0.1317113569388792</v>
       </c>
       <c r="C7">
-        <v>7.4881567992980513E-2</v>
+        <v>7.6187627558948604E-2</v>
       </c>
       <c r="D7">
-        <v>6.9861767465311008E-4</v>
+        <v>7.1080273329158052E-4</v>
       </c>
       <c r="E7">
-        <v>9.2349771873433115E-2</v>
+        <v>7.6518836507483631E-2</v>
       </c>
       <c r="F7">
-        <v>1.0014742641601695E-2</v>
+        <v>1.0189416473605301E-2</v>
       </c>
       <c r="G7">
-        <v>0.10746903760314253</v>
+        <v>0.10934347704623922</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.6094832046978543E-2</v>
+        <v>5.7073219572239736E-2</v>
       </c>
       <c r="J7">
-        <v>0.64210295208535595</v>
+        <v>0.65330229960684538</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.1389894254056991E-4</v>
+        <v>1.1588553026096467E-4</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.6274579139314141E-2</v>
+        <v>1.6558434971085702E-2</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1001,22 +1001,22 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>4.3962690743406994E-2</v>
+        <v>4.5393435620453539E-2</v>
       </c>
       <c r="C8">
-        <v>5.5360046727262857E-2</v>
+        <v>5.7161713138229001E-2</v>
       </c>
       <c r="D8">
-        <v>9.0953047251689738E-5</v>
+        <v>9.3913070949207467E-5</v>
       </c>
       <c r="E8">
-        <v>6.4480560685326149E-2</v>
+        <v>3.4034525136929707E-2</v>
       </c>
       <c r="F8">
-        <v>1.112435844589593E-2</v>
+        <v>1.1486395404684263E-2</v>
       </c>
       <c r="G8">
-        <v>0.14825503085219058</v>
+        <v>0.15307992037331164</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.71748969363052906</v>
+        <v>0.74084005472391878</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.1993566115437653E-3</v>
+        <v>3.3034781519774049E-3</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>30</v>
       </c>
       <c r="B9">
-        <v>2.2451437804053329E-2</v>
+        <v>2.3333964109402382E-2</v>
       </c>
       <c r="C9">
-        <v>3.0280179345058326E-2</v>
+        <v>3.1470439631990886E-2</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.2498926585514534E-2</v>
+        <v>1.5254335440274658E-2</v>
       </c>
       <c r="F9">
-        <v>1.1235769092117714E-2</v>
+        <v>1.1677427299986769E-2</v>
       </c>
       <c r="G9">
-        <v>0.17734188437219206</v>
+        <v>0.18431288014380248</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.72828745777780091</v>
+        <v>0.75691514946303717</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.5578282731645359E-4</v>
+        <v>3.6976802090799916E-4</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1283,43 +1283,43 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.7356951755522124E-2</v>
+        <v>7.7905346101422121E-2</v>
       </c>
       <c r="C2">
-        <v>7.969005108019088E-3</v>
+        <v>8.08325549730185E-3</v>
       </c>
       <c r="D2">
-        <v>2.5377851919287892E-4</v>
+        <v>2.6239532953176674E-4</v>
       </c>
       <c r="E2">
-        <v>1.6460357498402522E-2</v>
+        <v>2.2238296575399708E-2</v>
       </c>
       <c r="F2">
-        <v>3.7183729364400741E-4</v>
+        <v>3.861300045106309E-4</v>
       </c>
       <c r="G2">
-        <v>1.3335921788751011E-3</v>
+        <v>1.3759187147339739E-3</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>7.7067740386749864E-2</v>
+        <v>7.7603888148622846E-2</v>
       </c>
       <c r="J2">
-        <v>2.4323236704364627E-2</v>
+        <v>2.5248120740824231E-2</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>4.2748842961451785E-5</v>
+        <v>4.4199887297337561E-5</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.8989204976250038E-3</v>
+        <v>3.0587084366010941E-3</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1345,43 +1345,43 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.12933267286341427</v>
+        <v>0.13017731672257504</v>
       </c>
       <c r="C3">
-        <v>8.3175233589249872E-3</v>
+        <v>8.4893731601230361E-3</v>
       </c>
       <c r="D3">
-        <v>5.4594226167211009E-4</v>
+        <v>5.5502641390490137E-4</v>
       </c>
       <c r="E3">
-        <v>2.2929760634441538E-2</v>
+        <v>3.1070279515932449E-2</v>
       </c>
       <c r="F3">
-        <v>9.8112971709072238E-4</v>
+        <v>9.9492110550290433E-4</v>
       </c>
       <c r="G3">
-        <v>1.1139910000055254E-2</v>
+        <v>1.1209800196081355E-2</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.12885177785308763</v>
+        <v>0.12968104375272693</v>
       </c>
       <c r="J3">
-        <v>6.1641601896021719E-2</v>
+        <v>6.2535086470102891E-2</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.0646227037207545E-4</v>
+        <v>1.0800929930691565E-4</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.1751378596375303E-3</v>
+        <v>8.3265359108436448E-3</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1407,43 +1407,43 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3.6422575957298232E-2</v>
+        <v>3.68666753267749E-2</v>
       </c>
       <c r="C4">
-        <v>8.5931737463766401E-3</v>
+        <v>8.8805999542884446E-3</v>
       </c>
       <c r="D4">
-        <v>4.3893958293026732E-4</v>
+        <v>4.4835375211424428E-4</v>
       </c>
       <c r="E4">
-        <v>2.5029797567538172E-2</v>
+        <v>3.4148741706262926E-2</v>
       </c>
       <c r="F4">
-        <v>5.8607057579606367E-4</v>
+        <v>6.1976351637840006E-4</v>
       </c>
       <c r="G4">
-        <v>9.740796059902284E-3</v>
+        <v>9.8471789354188186E-3</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3.5064742746926517E-2</v>
+        <v>3.5443207002860293E-2</v>
       </c>
       <c r="J4">
-        <v>3.2529733680663413E-2</v>
+        <v>3.4926531977354389E-2</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.0497819306729326E-5</v>
+        <v>7.2119786007922721E-5</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.6527403792612291E-3</v>
+        <v>6.8340824973586499E-3</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1469,43 +1469,43 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1.907327063836901E-2</v>
+        <v>1.9365700841172728E-2</v>
       </c>
       <c r="C5">
-        <v>4.7331763119934783E-3</v>
+        <v>5.023921377232423E-3</v>
       </c>
       <c r="D5">
-        <v>2.7899967842153752E-4</v>
+        <v>2.8443090352907378E-4</v>
       </c>
       <c r="E5">
-        <v>1.9262418081068624E-2</v>
+        <v>2.5953662408898282E-2</v>
       </c>
       <c r="F5">
-        <v>4.7723214830000402E-4</v>
+        <v>5.0752459484002736E-4</v>
       </c>
       <c r="G5">
-        <v>5.8540510537602817E-3</v>
+        <v>5.9892479584392078E-3</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.8350035014009759E-2</v>
+        <v>1.8585823475114557E-2</v>
       </c>
       <c r="J5">
-        <v>2.6906525683574947E-2</v>
+        <v>2.9012319505702822E-2</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.0333434027449877E-5</v>
+        <v>8.1301067416106619E-5</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.4045639946053805E-3</v>
+        <v>3.5180015260110743E-3</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1531,43 +1531,43 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1.3644187316726519E-2</v>
+        <v>1.3899225554107436E-2</v>
       </c>
       <c r="C6">
-        <v>5.1413484980810482E-3</v>
+        <v>5.3220989985113716E-3</v>
       </c>
       <c r="D6">
-        <v>2.7444895043767165E-4</v>
+        <v>2.7902556816813978E-4</v>
       </c>
       <c r="E6">
-        <v>1.5900259730148174E-2</v>
+        <v>2.100544389444834E-2</v>
       </c>
       <c r="F6">
-        <v>4.3291407277174052E-4</v>
+        <v>4.530458395609544E-4</v>
       </c>
       <c r="G6">
-        <v>8.3060717142537949E-3</v>
+        <v>8.4967599795575943E-3</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.1765990837624437E-2</v>
+        <v>1.1971283633433539E-2</v>
       </c>
       <c r="J6">
-        <v>1.8794131182930225E-2</v>
+        <v>2.0335330121681341E-2</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>4.236690924108655E-5</v>
+        <v>4.3078579681632526E-5</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.0756117926851856E-3</v>
+        <v>5.1613848256857825E-3</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1593,43 +1593,43 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>1.1167434196901886E-2</v>
+        <v>1.1394002072472756E-2</v>
       </c>
       <c r="C7">
-        <v>5.4409230407338211E-3</v>
+        <v>5.5922029804803741E-3</v>
       </c>
       <c r="D7">
-        <v>6.673429458156414E-5</v>
+        <v>6.829922248316746E-5</v>
       </c>
       <c r="E7">
-        <v>1.7134427865130843E-2</v>
+        <v>2.2778094380127761E-2</v>
       </c>
       <c r="F7">
-        <v>3.5739860342261112E-4</v>
+        <v>3.7874885891858734E-4</v>
       </c>
       <c r="G7">
-        <v>8.8343781231956572E-3</v>
+        <v>9.0600667436006692E-3</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.0162752703252589E-2</v>
+        <v>1.0357019473375643E-2</v>
       </c>
       <c r="J7">
-        <v>1.6931605022530948E-2</v>
+        <v>1.8517553120933065E-2</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.6584553653162856E-5</v>
+        <v>1.6916774133111512E-5</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.0942597255823414E-3</v>
+        <v>2.1377300725430068E-3</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>2.3703466791351467E-3</v>
+        <v>2.4494233958616196E-3</v>
       </c>
       <c r="C8">
-        <v>3.2402809661089518E-3</v>
+        <v>3.348383122523552E-3</v>
       </c>
       <c r="D8">
-        <v>5.6060766802937634E-6</v>
+        <v>5.7926563825473222E-6</v>
       </c>
       <c r="E8">
-        <v>9.3374102919816116E-3</v>
+        <v>8.5425852904573024E-3</v>
       </c>
       <c r="F8">
-        <v>4.173609558886886E-4</v>
+        <v>4.3177366486451293E-4</v>
       </c>
       <c r="G8">
-        <v>3.9471195492157196E-3</v>
+        <v>4.0911475452464381E-3</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2.1359687475066322E-2</v>
+        <v>2.212224639897039E-2</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.0271396497728819E-4</v>
+        <v>2.0945261043214361E-4</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1717,22 +1717,22 @@
         <v>30</v>
       </c>
       <c r="B9">
-        <v>9.4796077238027774E-3</v>
+        <v>9.8511859362507229E-3</v>
       </c>
       <c r="C9">
-        <v>1.2998659071054524E-2</v>
+        <v>1.3508171290016021E-2</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.7928249041625732E-3</v>
+        <v>2.8950541473977322E-3</v>
       </c>
       <c r="F9">
-        <v>3.7176112185893052E-4</v>
+        <v>3.7936882646553641E-4</v>
       </c>
       <c r="G9">
-        <v>1.6039376285158374E-2</v>
+        <v>1.6629722503589253E-2</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.6391730710335079E-2</v>
+        <v>1.6361197493086971E-2</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4.8683779708102727E-4</v>
+        <v>5.0596921432687091E-4</v>
       </c>
       <c r="O9">
         <v>0</v>
